--- a/Data/Processed/Angiosperms/missing_powo_ipni/Olacaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Olacaceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3424,7 +3424,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4612,7 +4612,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6185,7 +6185,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6548,7 +6548,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6691,7 +6691,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7032,7 +7032,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7230,7 +7230,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -7846,7 +7846,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -7934,7 +7934,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8022,7 +8022,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8110,7 +8110,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8341,7 +8341,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8539,7 +8539,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -8902,7 +8902,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -8990,7 +8990,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -10673,7 +10673,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -10904,7 +10904,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -10914,7 +10914,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t xml:space="preserve">London J. Bot. 2: 377. 1843 </t>
+          <t>London J. Bot. 2: 377. 1843</t>
         </is>
       </c>
       <c r="J162" t="b">
